--- a/Jewelry-Rings-Adjustable.xlsx
+++ b/Jewelry-Rings-Adjustable.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Sizes</t>
-  </si>
-  <si>
-    <t>MSRP</t>
-  </si>
-  <si>
-    <t>Product Details</t>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,34 +408,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Size - Price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Images</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sterling Silver Antiqued Polished Textured Full Finger Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>98.76000000000001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Feature: Solid; Feature 2: Adjustable; Finish: Polished &amp; Antiqued; Manufacturing Process: Casted; Profile Type: Open Back; Ring Shape: Half Round</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6116.JPG; https://images.jewelers.services/qgrepo/QR6116--2.jpg; https://images.jewelers.services/qgrepo/QR6116--3.jpg; https://images.jewelers.services/qgrepo/QR6116--8.jpg; https://images.jewelers.services/qgrepo/QR6116--4.jpg; https://images.jewelers.services/qgrepo/QR6116--5.jpg; https://images.jewelers.services/qgrepo/QR6116--6.jpg; https://images.jewelers.services/qgrepo/QR6116--11.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6116.mp4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated CZ Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6.0 - 27.88; 7.0 - 27.88; 8.0 - 27.88</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 1.22 mm; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Item Weight U/M: gm; Manufacturing Process: Casted; Profile Type: Closed Back; Sizeable: No; Thickness: &lt; 1 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Round; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear; Stone Quantity: 6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6718.jpg; https://images.jewelers.services/qgrepo/QR6718--2.jpg; https://images.jewelers.services/qgrepo/QR6718--3.jpg; https://images.jewelers.services/qgrepo/QR6718--4.jpg; https://images.jewelers.services/qgrepo/QR6718--11.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6718.mp4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sterling Silver Antiqued Adjustable Toe Ring</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Toe; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 4 mm; Feature: Solid; Finish: Polished; Gender: Women's; Manufacturing Process: Casted</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR852.JPG; https://images.jewelers.services/qgrepo/QR852--2.jpg; https://images.jewelers.services/qgrepo/QR852--8.jpg; https://images.jewelers.services/qgrepo/QR852--3.jpg; https://images.jewelers.services/qgrepo/QR852--4.jpg; https://images.jewelers.services/qgrepo/QR852--11.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR852.mp4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished Half Moon and Star Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 2 mm; Coating: Anti-tarnish; Feature: Solid; Finish: Polished; Gender: Women's; Manufacturing Process: Casted</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6191.JPG; https://images.jewelers.services/qgrepo/QR6191--2.jpg; https://images.jewelers.services/qgrepo/QR6191--3.jpg; https://images.jewelers.services/qgrepo/QR6191--8.jpg; https://images.jewelers.services/qgrepo/QR6191--4.jpg; https://images.jewelers.services/qgrepo/QR6191--11.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6191.mp4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished Twisted Bar Center Adjustable Cuff Ring</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6.0 - 35.68; 7.0 - 35.68; 8.0 - 35.68</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 11 mm; Coating: Anti-tarnish; Feature: Solid; Finish: Polished; Gender: Women's; Item Weight U/M: gm; Manufacturing Process: Casted; Manufacturing Process 2: Hand Made; Profile Type: Closed Back; Ring Shape: Flat; Sizeable: No; Texture: Twisted; Thickness: &lt; 1.5 mm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6588.jpg; https://images.jewelers.services/qgrepo/QR6588--2.jpg; https://images.jewelers.services/qgrepo/QR6588--3.jpg; https://images.jewelers.services/qgrepo/QR6588--4.jpg; https://images.jewelers.services/qgrepo/QR6588--11.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6588.mp4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated CZ Square and Circle Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 1.23 mm; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Item Weight U/M: gm; Manufacturing Process: Casted; Profile Type: Open Back; Ring Top Length: 3.2 mm; Ring Top Width: 12.3 mm; Thickness: &lt; 1.5 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Square; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear; Stone Quantity: 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6682.jpg; https://images.jewelers.services/qgrepo/QR6682--2.jpg; https://images.jewelers.services/qgrepo/QR6682--3.jpg; https://images.jewelers.services/qgrepo/QR6682--4.jpg; https://images.jewelers.services/qgrepo/QR6682--11.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6682.mp4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated Polished CZ Arrow Ring</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 1.75 mm; Feature: Solid; Finish: Polished; Gender: Women's; Manufacturing Process: Casted; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6205.JPG; https://images.jewelers.services/qgrepo/QR6205--2.jpg; https://images.jewelers.services/qgrepo/QR6205--3.jpg; https://images.jewelers.services/qgrepo/QR6205--8.jpg; https://images.jewelers.services/qgrepo/QR6205--4.jpg; https://images.jewelers.services/qgrepo/QR6205--11.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6205.mp4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-Plated CZ Stars Bypass Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Sold By Unit: Each; Band Width: 1 mm; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Gender: Women's; Item Weight U/M: gm; Ring Top Length: 5.3 mm; Ring Top Width: 5.4 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Round; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: White; Stone Size: 1.5 mm; Stone Quantity: 12; Stone Setting: Shared Prong</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7181.jpg; https://images.jewelers.services/qgrepo/QR7181--2.jpg; https://images.jewelers.services/qgrepo/QR7181--3.jpg; https://images.jewelers.services/qgrepo/QR7181--8.jpg; https://images.jewelers.services/qgrepo/QR7181--4.jpg; https://images.jewelers.services/qgrepo/QR7181--5.jpg; https://images.jewelers.services/qgrepo/QR7181--6.jpg; https://images.jewelers.services/qgrepo/QR7181--11.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR7181.mp4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated Bar and Chain Link Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6.0 - 40.0; 7.0 - 40.0; 8.0 - 40.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 4.3 mm; Finish: Polished; Gender: Women's; Ring Top Length: 4.4 mm; Ring Top Width: 13 mm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7516.jpg; https://images.jewelers.services/qgrepo/QR7516--2.jpg; https://images.jewelers.services/qgrepo/QR7516--3.jpg; https://images.jewelers.services/qgrepo/QR7516--4.jpg; https://images.jewelers.services/qgrepo/QR7516--8.jpg; https://images.jewelers.services/qgrepo/QR7516--11.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR7516.mp4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14K Two-tone Gold Woven Mesh Stretch Ring</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>171.39</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Gold; Material: Primary - Color: Two-Tone; Material: Primary - Purity: 14K; Width of Item: 8 mm; Sold By Unit: Each; Band Width: 8 mm; Feature: Stretch; Feature 2: Adjustable; Finish: Polished; Gender: Women's; Sizeable: No; Texture: Mesh</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/SF2822.jpg; https://images.jewelers.services/qgrepo/SF2822--2.jpg; https://images.jewelers.services/qgrepo/SF2822--8.jpg; https://images.jewelers.services/qgrepo/SF2822--3.jpg; https://images.jewelers.services/qgrepo/SF2822--4.jpg; https://images.jewelers.services/qgrepo/SF2822--11.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/SF2822.mp4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished CZ Butterfly Double Finger Ring</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6.0 - 93.32; 7.0 - 93.32; 8.0 - 93.32</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 2.4 mm; Coating: Anti-tarnish; Completeness: Complete (all stones included); Feature: Adjustable; Feature 2: Solid; Finish: Polished; Head Type: Bezel; Item Weight U/M: gm; Manufacturing Process: Casted; Profile Type: Open Back; Ring Shape: Round; Ring Top Length: 21.83 mm; Ring Top Width: 18.03 mm; Sizeable: No; Thickness: &lt; 1.5 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Round; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear; Stone Quantity: 13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6660.jpg; https://images.jewelers.services/qgrepo/QR6660--2.jpg; https://images.jewelers.services/qgrepo/QR6660--3.jpg; https://images.jewelers.services/qgrepo/QR6660--4.jpg; https://images.jewelers.services/qgrepo/QR6660--5.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6660.mp4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lacquer Dipped Red Real Rose Adjustable Silver-tone Ring</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>39</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Rose (Authentic); Material: Primary - Color: Red; Sold By Unit: Each; Band Width: 34 mm; Item Weight U/M: gm; Packaging: Gift Boxed; Ring Top Length: 32 mm; Ring Top Width: 34 mm; Sizeable: No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/BF1327.JPG; https://images.jewelers.services/qgrepo/BF1327--2.jpg; https://images.jewelers.services/qgrepo/BF1327--3.jpg; https://images.jewelers.services/qgrepo/RoseJewelryBox--2.jpg; https://images.jewelers.services/qgrepo/BF1327--4.jpg; https://images.jewelers.services/qgrepo/BF1327--11.jpg; https://images.jewelers.services/qgrepo/BF1327--8.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10k Gold Polished Cat Adjustable Cuff Ring</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>145.95</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Gold; Material: Primary - Color: Yellow; Material: Primary - Purity: 10K; Width of Item: 1 mm; Sold By Unit: Each; Band Width: 1 mm; Feature: Solid; Finish: Polished; Profile Type: Closed Back; Ring Top Length: 6.5 mm; Ring Top Width: 5 mm; Sizeable: Yes; Thickness: &lt; 1 mm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/10R639.jpg; https://images.jewelers.services/qgrepo/10R639--2.jpg; https://images.jewelers.services/qgrepo/10R639--3.jpg; https://images.jewelers.services/qgrepo/10R639--8.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sterling Silver Adjustable Polished Ring</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 2 mm; Coating: Anti-tarnish; Feature: Solid; Finish: Polished; Gender: Women's; Item Weight U/M: gm; Manufacturing Process: Casted</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR793.JPG; https://images.jewelers.services/qgrepo/QR793--2.jpg; https://images.jewelers.services/qgrepo/QR793--8.jpg; https://images.jewelers.services/qgrepo/QR793--3.jpg; https://images.jewelers.services/qgrepo/QR793--4.jpg; https://images.jewelers.services/qgrepo/QR793--11.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR793.mp4</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sterling Silver Green Glass Bead 4-Leaf Clover Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 1.5 mm; Coating: Anti-tarnish; Completeness: Complete (all stones included); Feature: Solid; Gender: Women's; Manufacturing Process: Casted</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6330.JPG; https://images.jewelers.services/qgrepo/QR6330--2.jpg; https://images.jewelers.services/qgrepo/QR6330--3.jpg; https://images.jewelers.services/qgrepo/QR6330--8.jpg; https://images.jewelers.services/qgrepo/QR6330--4.jpg; https://images.jewelers.services/qgrepo/QR6330--11.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6330.mp4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished Half Moon and Sun Orange CZ Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 1.5 mm; Coating: Anti-tarnish; Completeness: Complete (all stones included); Feature: Solid; Gender: Women's; Manufacturing Process: Casted; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Orange</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6321.JPG; https://images.jewelers.services/qgrepo/QR6321--2.jpg; https://images.jewelers.services/qgrepo/QR6321--3.jpg; https://images.jewelers.services/qgrepo/QR6321--8.jpg; https://images.jewelers.services/qgrepo/QR6321--4.jpg; https://images.jewelers.services/qgrepo/QR6321--11.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6321.mp4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated CZ Key Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Sold By Unit: Each; Band Width: 1.26 mm; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Gender: Women's; Item Weight U/M: gm; Profile Type: Closed Back; Thickness: &lt; 1 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Round; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear; Stone Quantity: 19</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6747.jpg; https://images.jewelers.services/qgrepo/QR6747--2.jpg; https://images.jewelers.services/qgrepo/QR6747--3.jpg; https://images.jewelers.services/qgrepo/QR6747--4.jpg; https://images.jewelers.services/qgrepo/QR6747--11.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6747.mp4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sterling Silver Flash Gold-plated Textured Twist Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Gold/Silver (Flash Plating); Plating Color: Gold Tone; Sold By Unit: Each; Band Width: 3.6 mm; Feature: Adjustable; Finish: Polished; Gender: Women's</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7514GP.jpg; https://images.jewelers.services/qgrepo/QR7514GP--2.jpg; https://images.jewelers.services/qgrepo/QR7514GP--4.jpg; https://images.jewelers.services/qgrepo/QR7514GP--8.jpg; https://images.jewelers.services/qgrepo/QR7514GP--11.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR7514GP.mp4</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14K Gold Twisted Woven Mesh Stretch Ring</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>182.49</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Gold; Material: Primary - Color: Yellow; Material: Primary - Purity: 14K; Width of Item: 8 mm; Sold By Unit: Each; Band Width: 8 mm; Feature: Stretch; Feature 2: Adjustable; Finish: Polished; Gender: Women's; Sizeable: No; Texture: Mesh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/SF2821.jpg; https://images.jewelers.services/qgrepo/SF2821--2.jpg; https://images.jewelers.services/qgrepo/SF2821--8.jpg; https://images.jewelers.services/qgrepo/SF2821--3.jpg; https://images.jewelers.services/qgrepo/SF2821--4.jpg; https://images.jewelers.services/qgrepo/SF2821--11.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/SF2821.mp4</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1928 Silver-tone Black Enamel and Black Crystal Vintage Vine Pattern Stretch Ring</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Plating Color: Silver Tone; Material: Accents: Enamel; Material: Accent Color 1: Black; Sold By Unit: Each; Band Width: 10.1 mm; Feature: Stretch; Finish: Polished; Licensed By: 1928®; Ring Top Length: 42.5 mm; Ring Top Width: 29.25 mm; Texture: Beaded; Stone Type: Crystal; Stone Color: Black</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/BF1105.JPG; https://images.jewelers.services/qgrepo/BF1105--2.jpg; https://images.jewelers.services/qgrepo/BF1105--3.jpg; https://images.jewelers.services/qgrepo/BF1105--4.jpg; https://images.jewelers.services/qgrepo/BF1105--8.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated CZ Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>117.88</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Rings with Stones; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Completeness: Complete (all stones included); Item Weight U/M: gm; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6522.jpg; https://images.jewelers.services/qgrepo/QR6522--2.jpg; https://images.jewelers.services/qgrepo/QR6522--3.jpg; https://images.jewelers.services/qgrepo/QR6522--4.jpg; https://images.jewelers.services/qgrepo/QR6522--8.jpg; https://images.jewelers.services/qgrepo/QR6522--11.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6522.mp4</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14K White Gold Lab Grown Diamond VS/SI GH, Initial A Adjustable Rin</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>706.23</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Letter: A; Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Themed; Material: Primary: Gold; Material: Primary - Color: White; Material: Primary - Purity: 14K; Plating: Rhodium; Width of Item: 8.08 mm; Sold By Unit: Each; Band Width: 1.7 mm; Completeness: Complete (all stones included); Engravable: Not Recommended; Feature: Adjustable; Finish: Polished; Gender: Women's; Sizeable: No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/RM10277A-017-WAA.jpg; https://images.jewelers.services/qgrepo/RM10277A-017-WAA--2.jpg; https://images.jewelers.services/qgrepo/RM10277A-017-WAA--3.jpg; https://images.jewelers.services/qgrepo/RM10277A-017-WAA--4.jpg; https://images.jewelers.services/qgrepo/RM10277A-017-WAA--8.jpg; https://images.jewelers.services/qgrepo/RM10277A-017-WAA--11.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished 'Love' Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Band Width: 1.6 mm; Coating: Anti-tarnish; Feature: Solid; Finish: Polished; Gender: Women's; Manufacturing Process: Casted</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6068.JPG; https://images.jewelers.services/qgrepo/QR6068--2.jpg; https://images.jewelers.services/qgrepo/QR6068--8.jpg; https://images.jewelers.services/qgrepo/QR6068--3.jpg; https://images.jewelers.services/qgrepo/QR6068--4.jpg; https://images.jewelers.services/qgrepo/QR6068--11.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6068.mp4</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Leslie's Sterling Silver Rhodium-Plated Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>77.61</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 8 mm; Feature: Solid; Finish: Polished; Item Weight U/M: gm; Manufacturing Process: Stamping; Ring Top Width: 22 mm; Sizeable: No; Texture: Textured; Thickness: &lt; 1 mm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QLR112.jpg; https://images.jewelers.services/qgrepo/QLR112--2.jpg; https://images.jewelers.services/qgrepo/QLR112--3.jpg; https://images.jewelers.services/qgrepo/QLR112--4.jpg; https://images.jewelers.services/qgrepo/QLR112--8.jpg; https://images.jewelers.services/qgrepo/QLR112--11.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QLR112.mp4</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Swarovski Crystal Macrame Ring</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Stone Type: Crystals by Swarovski®</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/SR0651-34.JPG; https://images.jewelers.services/qgrepo/SR0651-34--8.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium Plated Stars Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Sold By Unit: Each; Band Width: 1 mm; Feature: Adjustable; Finish: Polished; Gender: Women's; Item Weight U/M: gm; Ring Top Length: 15.3 mm; Ring Top Width: 5.3 mm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7182.jpg; https://images.jewelers.services/qgrepo/QR7182--2.jpg; https://images.jewelers.services/qgrepo/QR7182--3.jpg; https://images.jewelers.services/qgrepo/QR7182--8.jpg; https://images.jewelers.services/qgrepo/QR7182--4.jpg; https://images.jewelers.services/qgrepo/QR7182--5.jpg; https://images.jewelers.services/qgrepo/QR7182--6.jpg; https://images.jewelers.services/qgrepo/QR7182--11.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR7182.mp4</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished and Antiqued Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Sold By Unit: Each; Feature: Solid; Finish: Polished &amp; Antiqued; Manufacturing Process: Casted</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6111.JPG; https://images.jewelers.services/qgrepo/QR6111--2.jpg; https://images.jewelers.services/qgrepo/QR6111--3.jpg; https://images.jewelers.services/qgrepo/QR6111--8.jpg; https://images.jewelers.services/qgrepo/QR6111--4.jpg; https://images.jewelers.services/qgrepo/QR6111--11.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6111.mp4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium Plated August Light Green Triple CZ Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Feature: Adjustable; Item Weight U/M: gm; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7186AUG.jpg; https://images.jewelers.services/qgrepo/QR7186AUG--2.jpg; https://images.jewelers.services/qgrepo/QR7186AUG--3.jpg; https://images.jewelers.services/qgrepo/QR7186AUG--8.jpg; https://images.jewelers.services/qgrepo/QR7186AUG--4.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium Plated and Textured Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>103</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 10 mm; Feature: Adjustable; Finish: Polished; Gender: Women's; Texture: Textured</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7524.jpg; https://images.jewelers.services/qgrepo/QR7524--2.jpg; https://images.jewelers.services/qgrepo/QR7524--3.jpg; https://images.jewelers.services/qgrepo/QR7524--4.jpg; https://images.jewelers.services/qgrepo/QR7524--8.jpg; https://images.jewelers.services/qgrepo/QR7524--11.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR7524.mp4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sterling Silver Polished Synthetic Pearl Ring</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>6.0 - 78.0; 7.0 - 78.0; 8.0 - 78.0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Pearl Ring; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Width of Item: 1.6 mm; Sold By Unit: Each; Band Width: 1.6 mm; Coating: Anti-tarnish; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Gender: Women's; Ring Top Length: 14.4 mm; Ring Top Width: 19.7 mm; Stone Type: Simulated Pearl; Pearl Type: Glass / Simulated; Stone Shape: Round; Stone Creation Method: Synthetic; Stone Color: White; Stone Size: 10 to 11 mm (range); Stone Quantity: 2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7606.jpg; https://images.jewelers.services/qgrepo/QR7606--2.jpg; https://images.jewelers.services/qgrepo/QR7606--3.jpg; https://images.jewelers.services/qgrepo/QR7606--4.jpg; https://images.jewelers.services/qgrepo/QR7606--8.jpg; https://images.jewelers.services/qgrepo/QR7606--11.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Leslie's Sterling Silver Rhodium-plated Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>198.66</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 11.5 mm; Edge Type: Flat; Engravable: Not Recommended; Feature: Adjustable; Feature 2: Solid; Finish: Polished; Item Weight U/M: gm; Manufacturing Process: Machine Made; Sizeable: No; Texture: Textured</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QLR115.jpg; https://images.jewelers.services/qgrepo/QLR115--2.jpg; https://images.jewelers.services/qgrepo/QLR115--3.jpg; https://images.jewelers.services/qgrepo/QLR115--4.jpg; https://images.jewelers.services/qgrepo/QLR115--8.jpg; https://images.jewelers.services/qgrepo/QLR115--11.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QLR115.mp4</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated Adjustable Polished CZ Arrow Ring</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>52.16</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 1.5 mm; Feature: Solid; Finish: Polished; Gender: Women's; Manufacturing Process: Casted; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6207.JPG; https://images.jewelers.services/qgrepo/QR6207--2.jpg; https://images.jewelers.services/qgrepo/QR6207--3.jpg; https://images.jewelers.services/qgrepo/QR6207--8.jpg; https://images.jewelers.services/qgrepo/QR6207--4.jpg; https://images.jewelers.services/qgrepo/QR6207--11.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6207.mp4</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated CZ Adjustable Fingernail Ring</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>70.16</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 1.5 mm; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Item Weight U/M: gm; Profile Type: Closed Back; Ring Top Length: 26.8 mm; Ring Top Width: 10.69 mm; Thickness: &lt; 1.5 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Round; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear; Stone Quantity: 34</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6687.jpg; https://images.jewelers.services/qgrepo/QR6687--2.jpg; https://images.jewelers.services/qgrepo/QR6687--3.jpg; https://images.jewelers.services/qgrepo/QR6687--5.jpg; https://images.jewelers.services/qgrepo/QR6687--4.jpg; https://images.jewelers.services/qgrepo/QR6687--11.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6687.mp4</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium Plated November Yellow Triple CZ Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Feature: Adjustable; Item Weight U/M: gm; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7186NOV.jpg; https://images.jewelers.services/qgrepo/QR7186NOV--2.jpg; https://images.jewelers.services/qgrepo/QR7186NOV--3.jpg; https://images.jewelers.services/qgrepo/QR7186NOV--8.jpg; https://images.jewelers.services/qgrepo/QR7186NOV--4.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium-plated CZ Adjustable Fingernail Ring</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Fashion; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Plating Color: Silver Tone; Sold By Unit: Each; Band Width: 1.54 mm; Completeness: Complete (all stones included); Feature: Adjustable; Finish: Polished; Item Weight U/M: gm; Profile Type: Closed Back; Ring Top Length: 23.09 mm; Ring Top Width: 9.35 mm; Thickness: &lt; 2 mm; Stone Type: Cubic Zirconia (CZ); Stone Shape: Round; Stone Creation Method: Synthetic; Stone Treatment: Synthetic; Stone Color: Clear; Stone Quantity: 60</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR6688.jpg; https://images.jewelers.services/qgrepo/QR6688--2.jpg; https://images.jewelers.services/qgrepo/QR6688--3.jpg; https://images.jewelers.services/qgrepo/QR6688--4.jpg; https://images.jewelers.services/qgrepo/QR6688--5.jpg; https://images.jewelers.services/qgrepo/QR6688--11.jpg</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/0/Videos/QR6688.mp4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sterling Silver Rhodium Plated November Yellow CZ Adjustable Ring</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>150.84</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Product Type: Jewelry; Jewelry Type: Rings; Ring Type: Adjustable; Material: Primary: Sterling Silver; Material: Primary - Color: White; Material: Primary - Purity: 925; Plating: Rhodium; Feature: Adjustable; Item Weight U/M: gm; Stone Type: Cubic Zirconia (CZ); Stone Creation Method: Synthetic; Stone Treatment: Synthetic</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://images.jewelers.services/qgrepo/QR7185NOV.jpg; https://images.jewelers.services/qgrepo/QR7185NOV--2.jpg; https://images.jewelers.services/qgrepo/QR7185NOV--3.jpg; https://images.jewelers.services/qgrepo/QR7185NOV--8.jpg; https://images.jewelers.services/qgrepo/QR7185NOV--4.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>In Stock</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>